--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.15/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.15/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1025">
   <si>
     <t>anchor score</t>
   </si>
@@ -346,604 +346,604 @@
     <t>security</t>
   </si>
   <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>emails</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>bloody</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>emails</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>bloody</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>attorney</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>cal</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>hazard</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3457,7 +3457,7 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K3">
         <v>0.9322033898305084</v>
@@ -3686,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K6">
         <v>0.8740157480314961</v>
@@ -3836,7 +3836,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K9">
         <v>0.7770700636942676</v>
@@ -3936,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K11">
         <v>0.6950354609929078</v>
@@ -3986,28 +3986,28 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="K12">
-        <v>0.6926406926406926</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L12">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="M12">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4036,28 +4036,28 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>99</v>
+        <v>306</v>
       </c>
       <c r="K13">
-        <v>0.6777777777777778</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L13">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4086,7 +4086,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K14">
         <v>0.6190476190476191</v>
@@ -4136,7 +4136,7 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K15">
         <v>0.6111111111111112</v>
@@ -4186,28 +4186,28 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="K16">
-        <v>0.573170731707317</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L16">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4236,28 +4236,28 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="K17">
-        <v>0.5614035087719298</v>
+        <v>0.5590551181102362</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>215</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4286,28 +4286,28 @@
         <v>99</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="K18">
-        <v>0.5590551181102362</v>
+        <v>0.5529411764705883</v>
       </c>
       <c r="L18">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="M18">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4336,7 +4336,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K19">
         <v>0.5113636363636364</v>
@@ -4436,7 +4436,7 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K21">
         <v>0.503448275862069</v>
@@ -4486,7 +4486,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K22">
         <v>0.5</v>
@@ -4536,7 +4536,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K23">
         <v>0.4626865671641791</v>
@@ -4886,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K30">
         <v>0.40625</v>
@@ -4936,7 +4936,7 @@
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K31">
         <v>0.4050632911392405</v>
@@ -5036,7 +5036,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K33">
         <v>0.3809523809523809</v>
@@ -5136,7 +5136,7 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K35">
         <v>0.3649289099526066</v>
@@ -5186,7 +5186,7 @@
         <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K36">
         <v>0.3617021276595745</v>
@@ -5286,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K38">
         <v>0.3473684210526316</v>
@@ -5586,7 +5586,7 @@
         <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K44">
         <v>0.3317073170731707</v>
@@ -5686,7 +5686,7 @@
         <v>11</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K46">
         <v>0.3209876543209876</v>
@@ -5736,7 +5736,7 @@
         <v>18</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K47">
         <v>0.3166666666666667</v>
@@ -6086,7 +6086,7 @@
         <v>6</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K54">
         <v>0.3</v>
@@ -6436,7 +6436,7 @@
         <v>21</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K61">
         <v>0.28125</v>
@@ -6586,7 +6586,7 @@
         <v>7</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K64">
         <v>0.2738853503184713</v>
@@ -6786,7 +6786,7 @@
         <v>13</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K68">
         <v>0.2575757575757576</v>
@@ -7636,7 +7636,7 @@
         <v>29</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K85">
         <v>0.2473118279569892</v>
@@ -7836,7 +7836,7 @@
         <v>32</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K89">
         <v>0.2391752577319588</v>
@@ -7886,7 +7886,7 @@
         <v>13</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K90">
         <v>0.2385321100917431</v>
@@ -7986,7 +7986,7 @@
         <v>7</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K92">
         <v>0.2361111111111111</v>
@@ -8286,7 +8286,7 @@
         <v>48</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K98">
         <v>0.2307692307692308</v>
@@ -8536,7 +8536,7 @@
         <v>34</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K103">
         <v>0.2285714285714286</v>
@@ -8586,7 +8586,7 @@
         <v>17</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K104">
         <v>0.2279411764705882</v>
@@ -8615,28 +8615,28 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1012658227848101</v>
+        <v>0.1</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K105">
         <v>0.2272727272727273</v>
@@ -8668,10 +8668,10 @@
         <v>0.1</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>369</v>
@@ -8718,10 +8718,10 @@
         <v>0.1</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -8733,10 +8733,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K107">
         <v>0.2255639097744361</v>
@@ -8786,7 +8786,7 @@
         <v>9</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K108">
         <v>0.2233009708737864</v>
@@ -8865,13 +8865,13 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>371</v>
@@ -8915,13 +8915,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.09677419354838709</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K111">
         <v>0.2222222222222222</v>
@@ -9036,7 +9036,7 @@
         <v>10</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K113">
         <v>0.219347581552306</v>
@@ -9115,13 +9115,13 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -9133,10 +9133,10 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K115">
         <v>0.215962441314554</v>
@@ -9171,22 +9171,22 @@
         <v>2</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
         <v>21</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K116">
         <v>0.2142857142857143</v>
@@ -9215,28 +9215,28 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K117">
         <v>0.2142857142857143</v>
@@ -9371,16 +9371,16 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
         <v>11</v>
@@ -9421,16 +9421,16 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E121">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>11</v>
@@ -9465,25 +9465,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>378</v>
@@ -9515,25 +9515,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="E123">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="F123">
-        <v>0.18</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>379</v>
@@ -9565,25 +9565,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C124">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D124">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="E124">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F124">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>380</v>
@@ -9615,25 +9615,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.07894736842105263</v>
+        <v>0.075</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D125">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="E125">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>381</v>
@@ -9665,25 +9665,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E126">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F126">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>382</v>
@@ -9715,13 +9715,13 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -9733,10 +9733,10 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K127">
         <v>0.2083333333333333</v>
@@ -9821,16 +9821,16 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>13</v>
@@ -9915,28 +9915,28 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.07142857142857142</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E131">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="F131">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K131">
         <v>0.2042410714285714</v>
@@ -9965,28 +9965,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K132">
         <v>0.2019543973941368</v>
@@ -10015,25 +10015,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.06818181818181818</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F133">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>386</v>
@@ -10118,22 +10118,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E135">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F135">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>388</v>
@@ -10171,16 +10171,16 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>14</v>
@@ -10215,25 +10215,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>390</v>
@@ -10265,25 +10265,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F138">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>391</v>
@@ -10371,13 +10371,13 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E140">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F140">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
@@ -10471,16 +10471,16 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>15</v>
@@ -10515,13 +10515,13 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>396</v>
@@ -10565,7 +10565,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>397</v>
@@ -10618,25 +10618,25 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K145">
         <v>0.1951219512195122</v>
@@ -10668,22 +10668,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>398</v>
@@ -10721,13 +10721,13 @@
         <v>3</v>
       </c>
       <c r="D147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E147">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="F147">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
@@ -10768,22 +10768,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="E148">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F148">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>400</v>
@@ -10815,28 +10815,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K149">
         <v>0.1905844155844156</v>
@@ -10865,28 +10865,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K150">
         <v>0.1904761904761905</v>
@@ -10918,10 +10918,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -10933,10 +10933,10 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K151">
         <v>0.1891891891891892</v>
@@ -10971,22 +10971,22 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
         <v>17</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K152">
         <v>0.1871345029239766</v>
@@ -11065,28 +11065,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D154">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E154">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F154">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K154">
         <v>0.186046511627907</v>
@@ -11115,7 +11115,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>402</v>
@@ -11165,28 +11165,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="F156">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K156">
         <v>0.1845574387947269</v>
@@ -11265,25 +11265,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E158">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F158">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>404</v>
@@ -11315,25 +11315,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.05263157894736842</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>405</v>
@@ -11365,25 +11365,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E160">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F160">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>406</v>
@@ -11415,7 +11415,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>407</v>
@@ -11465,25 +11465,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>408</v>
@@ -11515,25 +11515,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F163">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>409</v>
@@ -11565,25 +11565,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>410</v>
@@ -11621,22 +11621,22 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
         <v>22</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K165">
         <v>0.1811023622047244</v>
@@ -11665,28 +11665,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F166">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K166">
         <v>0.1805309734513274</v>
@@ -11715,7 +11715,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>411</v>
@@ -11765,25 +11765,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>412</v>
@@ -11815,7 +11815,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -11833,10 +11833,10 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K169">
         <v>0.176</v>
@@ -11865,28 +11865,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K170">
         <v>0.1752136752136752</v>
@@ -11915,25 +11915,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>413</v>
@@ -11971,13 +11971,13 @@
         <v>1</v>
       </c>
       <c r="D172">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E172">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F172">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
@@ -12015,25 +12015,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E173">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F173">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>415</v>
@@ -12065,25 +12065,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E174">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F174">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>416</v>
@@ -12121,13 +12121,13 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E175">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F175">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
@@ -12136,7 +12136,7 @@
         <v>26</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K175">
         <v>0.1712328767123288</v>
@@ -12165,25 +12165,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>417</v>
@@ -12215,28 +12215,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K177">
         <v>0.1688311688311688</v>
@@ -12271,16 +12271,16 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
         <v>27</v>
@@ -12321,13 +12321,13 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
@@ -12365,25 +12365,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03571428571428571</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E180">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F180">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>420</v>
@@ -12415,25 +12415,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>421</v>
@@ -12465,25 +12465,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03488372093023256</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="C182">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D182">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="E182">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F182">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>422</v>
@@ -12515,28 +12515,28 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K183">
         <v>0.1666666666666667</v>
@@ -12565,28 +12565,28 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03355704697986577</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C184">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="E184">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F184">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K184">
         <v>0.1666666666666667</v>
@@ -12621,13 +12621,13 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
@@ -12665,25 +12665,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E186">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F186">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>424</v>
@@ -12715,25 +12715,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E187">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F187">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>425</v>
@@ -12765,25 +12765,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E188">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F188">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>426</v>
@@ -12815,25 +12815,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E189">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F189">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>427</v>
@@ -12865,25 +12865,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0303030303030303</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D190">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="E190">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F190">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>428</v>
@@ -12915,25 +12915,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E191">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F191">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>429</v>
@@ -12965,25 +12965,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02898550724637681</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="C192">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D192">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="E192">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F192">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>430</v>
@@ -13015,7 +13015,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -13033,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>431</v>
@@ -13065,25 +13065,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02836879432624113</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C194">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="E194">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F194">
-        <v>0.06000000000000005</v>
+        <v>0.14</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>432</v>
@@ -13165,25 +13165,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E196">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F196">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>434</v>
@@ -13215,25 +13215,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E197">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F197">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>435</v>
@@ -13265,25 +13265,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>436</v>
@@ -13315,25 +13315,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E199">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>437</v>
@@ -13371,16 +13371,16 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
         <v>38</v>
@@ -13465,25 +13465,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F202">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>440</v>
@@ -13515,25 +13515,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02564102564102564</v>
+        <v>0.02456140350877193</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>441</v>
@@ -13565,25 +13565,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>442</v>
@@ -13615,25 +13615,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02456140350877193</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C205">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="E205">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F205">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>278</v>
+        <v>40</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>443</v>
@@ -13665,13 +13665,13 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02439024390243903</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>444</v>
@@ -13715,28 +13715,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F207">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K207">
         <v>0.1623931623931624</v>
@@ -13765,28 +13765,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02409638554216868</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K208">
         <v>0.16</v>
@@ -13815,25 +13815,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E209">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F209">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>445</v>
@@ -13865,25 +13865,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E210">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F210">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>446</v>
@@ -13915,28 +13915,28 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="E211">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F211">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K211">
         <v>0.1581395348837209</v>
@@ -13965,25 +13965,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E212">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>447</v>
@@ -14015,25 +14015,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="F213">
-        <v>0.01000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>448</v>
@@ -14068,22 +14068,22 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>449</v>
@@ -14121,13 +14121,13 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F215">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
@@ -14165,25 +14165,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02222222222222222</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>451</v>
@@ -14215,28 +14215,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E217">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F217">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K217">
         <v>0.1538461538461539</v>
@@ -14265,25 +14265,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02150537634408602</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E218">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="F218">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>452</v>
@@ -14315,25 +14315,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E219">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="F219">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>453</v>
@@ -14365,25 +14365,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02083333333333333</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E220">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F220">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>454</v>
@@ -14415,25 +14415,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="F221">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>455</v>
@@ -14465,25 +14465,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02061855670103093</v>
+        <v>0.02</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E222">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F222">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>456</v>
@@ -14515,25 +14515,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E223">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F223">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>457</v>
@@ -14568,22 +14568,22 @@
         <v>0.02</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E224">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F224">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>458</v>
@@ -14615,28 +14615,28 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K225">
         <v>0.1463414634146341</v>
@@ -14665,25 +14665,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D226">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E226">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F226">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>459</v>
@@ -14715,25 +14715,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0196078431372549</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>460</v>
@@ -14765,25 +14765,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01937984496124031</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C228">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="E228">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F228">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>461</v>
@@ -14815,13 +14815,13 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01904761904761905</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C229">
         <v>2</v>
       </c>
       <c r="D229">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E229">
         <v>0.92</v>
@@ -14833,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>462</v>
@@ -14865,25 +14865,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01886792452830189</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F230">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>463</v>
@@ -14915,25 +14915,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E231">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F231">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>464</v>
@@ -14965,25 +14965,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01869158878504673</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D232">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>0.92</v>
+        <v>0.7</v>
       </c>
       <c r="F232">
-        <v>0.07999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>465</v>
@@ -15015,28 +15015,28 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K233">
         <v>0.1428571428571428</v>
@@ -15065,25 +15065,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01829268292682927</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F234">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>466</v>
@@ -15115,25 +15115,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>467</v>
@@ -15171,13 +15171,13 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E236">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F236">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
@@ -15215,25 +15215,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E237">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F237">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>469</v>
@@ -15265,25 +15265,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01785714285714286</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F238">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>470</v>
@@ -15318,22 +15318,22 @@
         <v>0.01724137931034483</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>471</v>
@@ -15365,25 +15365,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E240">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F240">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>472</v>
@@ -15415,25 +15415,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>473</v>
@@ -15465,25 +15465,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E242">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F242">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>474</v>
@@ -15515,13 +15515,13 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01694915254237288</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E243">
         <v>0.88</v>
@@ -15533,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>475</v>
@@ -15565,25 +15565,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01666666666666667</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E244">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="F244">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>476</v>
@@ -15615,25 +15615,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01626016260162602</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D245">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E245">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F245">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>477</v>
@@ -15665,25 +15665,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01538461538461539</v>
+        <v>0.01506996770721206</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D246">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E246">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
       <c r="F246">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>64</v>
+        <v>915</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>478</v>
@@ -15715,25 +15715,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01530612244897959</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C247">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E247">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F247">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>193</v>
+        <v>67</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>479</v>
@@ -15765,25 +15765,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01506996770721206</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="C248">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E248">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="F248">
-        <v>0.26</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>915</v>
+        <v>139</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>480</v>
@@ -15815,25 +15815,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01470588235294118</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E249">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F249">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>481</v>
@@ -15865,25 +15865,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01418439716312057</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E250">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F250">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>482</v>
@@ -15915,25 +15915,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0136986301369863</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E251">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F251">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>483</v>
@@ -15965,25 +15965,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0131578947368421</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E252">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F252">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>484</v>
@@ -16021,13 +16021,13 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E253">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F253">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
@@ -16071,13 +16071,13 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E254">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="F254">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
@@ -16115,25 +16115,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01298701298701299</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D255">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="E255">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F255">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>487</v>
@@ -16165,25 +16165,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01298701298701299</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D256">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E256">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>488</v>
@@ -16215,13 +16215,13 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01234567901234568</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="C257">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E257">
         <v>0.96</v>
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>489</v>
@@ -16265,25 +16265,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0119047619047619</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="C258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>3</v>
+        <v>215</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>490</v>
@@ -16315,25 +16315,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01183431952662722</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E259">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F259">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>491</v>
@@ -16365,28 +16365,28 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01176470588235294</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>215</v>
+        <v>9</v>
       </c>
       <c r="E260">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="F260">
-        <v>0.01000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K260">
         <v>0.1419753086419753</v>
@@ -16415,25 +16415,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01136363636363636</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E261">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F261">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>492</v>
@@ -16465,25 +16465,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01123595505617977</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E262">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F262">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>493</v>
@@ -16515,25 +16515,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01111111111111111</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E263">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F263">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>494</v>
@@ -16565,13 +16565,13 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01098901098901099</v>
+        <v>0.01085094231867504</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D264">
-        <v>22</v>
+        <v>411</v>
       </c>
       <c r="E264">
         <v>0.95</v>
@@ -16583,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>90</v>
+        <v>1732</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>495</v>
@@ -16615,28 +16615,28 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01098901098901099</v>
+        <v>0.01071428571428571</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D265">
-        <v>19</v>
+        <v>614</v>
       </c>
       <c r="E265">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F265">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>90</v>
+        <v>2493</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K265">
         <v>0.1363636363636364</v>
@@ -16665,25 +16665,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01085094231867504</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C266">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>411</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="F266">
-        <v>0.05000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>1732</v>
+        <v>186</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>496</v>
@@ -16715,25 +16715,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01071428571428571</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C267">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>614</v>
+        <v>65</v>
       </c>
       <c r="E267">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F267">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>2493</v>
+        <v>94</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>497</v>
@@ -16765,25 +16765,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01063829787234043</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E268">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F268">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>498</v>
@@ -16815,25 +16815,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01052631578947368</v>
+        <v>0.009861932938856016</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D269">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E269">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F269">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>94</v>
+        <v>502</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>499</v>
@@ -16865,25 +16865,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0101010101010101</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E270">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F270">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>500</v>
@@ -16915,25 +16915,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.009861932938856016</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C271">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E271">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F271">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>502</v>
+        <v>102</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>501</v>
@@ -16965,25 +16965,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.009708737864077669</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E272">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F272">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>502</v>
@@ -17015,7 +17015,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.009708737864077669</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17033,7 +17033,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>503</v>
@@ -17071,13 +17071,13 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E274">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F274">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
@@ -17115,13 +17115,13 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.009615384615384616</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E275">
         <v>0.97</v>
@@ -17133,7 +17133,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>505</v>
@@ -17165,25 +17165,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.009615384615384616</v>
+        <v>0.009124087591240875</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D276">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E276">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F276">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>103</v>
+        <v>543</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>506</v>
@@ -17215,28 +17215,28 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.009433962264150943</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E277">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F277">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K277">
         <v>0.1333333333333333</v>
@@ -17265,25 +17265,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.009124087591240875</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C278">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="E278">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F278">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>543</v>
+        <v>111</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>507</v>
@@ -17315,25 +17315,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.009009009009009009</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E279">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F279">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>508</v>
@@ -17365,25 +17365,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.008928571428571428</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E280">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F280">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>509</v>
@@ -17415,25 +17415,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.008474576271186441</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E281">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F281">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>510</v>
@@ -17465,28 +17465,28 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.008403361344537815</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E282">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F282">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K282">
         <v>0.1333333333333333</v>
@@ -17515,25 +17515,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.00819672131147541</v>
+        <v>0.008042895442359249</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D283">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E283">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F283">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H283">
-        <v>121</v>
+        <v>370</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>511</v>
@@ -17565,28 +17565,28 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.008064516129032258</v>
+        <v>0.007947019867549669</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D284">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="E284">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F284">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>123</v>
+        <v>749</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K284">
         <v>0.1323529411764706</v>
@@ -17615,25 +17615,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.008042895442359249</v>
+        <v>0.00715307582260372</v>
       </c>
       <c r="C285">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D285">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H285">
-        <v>370</v>
+        <v>694</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>512</v>
@@ -17665,25 +17665,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.007947019867549669</v>
+        <v>0.006968641114982578</v>
       </c>
       <c r="C286">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D286">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="E286">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F286">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>749</v>
+        <v>285</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>513</v>
@@ -17715,13 +17715,13 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.00715307582260372</v>
+        <v>0.006963788300835654</v>
       </c>
       <c r="C287">
         <v>5</v>
       </c>
       <c r="D287">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E287">
         <v>0.97</v>
@@ -17733,7 +17733,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>514</v>
@@ -17765,28 +17765,28 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.006968641114982578</v>
+        <v>0.006572769953051643</v>
       </c>
       <c r="C288">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D288">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="E288">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F288">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>285</v>
+        <v>1058</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K288">
         <v>0.1304347826086956</v>
@@ -17815,25 +17815,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.006963788300835654</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="C289">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D289">
-        <v>188</v>
+        <v>13</v>
       </c>
       <c r="E289">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F289">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>713</v>
+        <v>153</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>515</v>
@@ -17865,28 +17865,28 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.006572769953051643</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="C290">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D290">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="E290">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F290">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>1058</v>
+        <v>160</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K290">
         <v>0.1300813008130081</v>
@@ -17915,25 +17915,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.006493506493506494</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E291">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="F291">
-        <v>0.07999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>516</v>
@@ -17965,13 +17965,13 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.006211180124223602</v>
+        <v>0.004905395935529082</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D292">
-        <v>25</v>
+        <v>361</v>
       </c>
       <c r="E292">
         <v>0.96</v>
@@ -17983,7 +17983,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>160</v>
+        <v>2840</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>517</v>
@@ -18015,25 +18015,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.005319148936170213</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E293">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F293">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>518</v>
@@ -18065,25 +18065,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.004905395935529082</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="C294">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D294">
-        <v>361</v>
+        <v>39</v>
       </c>
       <c r="E294">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F294">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>2840</v>
+        <v>228</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>519</v>
@@ -18115,25 +18115,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.004739336492890996</v>
+        <v>0.004301075268817204</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="E295">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F295">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>210</v>
+        <v>463</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>520</v>
@@ -18165,25 +18165,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.004366812227074236</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E296">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F296">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>521</v>
@@ -18215,25 +18215,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.004301075268817204</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="C297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D297">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="E297">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F297">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>463</v>
+        <v>257</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>522</v>
@@ -18265,28 +18265,28 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.004065040650406504</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E298">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F298">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K298">
         <v>0.1272727272727273</v>
@@ -18315,25 +18315,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.003875968992248062</v>
+        <v>0.002702702702702703</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="E299">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F299">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>257</v>
+        <v>369</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>523</v>
@@ -18361,32 +18361,8 @@
       </c>
     </row>
     <row r="300" spans="1:17">
-      <c r="A300" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B300">
-        <v>0.003003003003003003</v>
-      </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-      <c r="D300">
-        <v>28</v>
-      </c>
-      <c r="E300">
-        <v>0.96</v>
-      </c>
-      <c r="F300">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G300" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300">
-        <v>332</v>
-      </c>
       <c r="J300" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K300">
         <v>0.1259842519685039</v>
@@ -18411,30 +18387,6 @@
       </c>
     </row>
     <row r="301" spans="1:17">
-      <c r="A301" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B301">
-        <v>0.002702702702702703</v>
-      </c>
-      <c r="C301">
-        <v>1</v>
-      </c>
-      <c r="D301">
-        <v>117</v>
-      </c>
-      <c r="E301">
-        <v>0.99</v>
-      </c>
-      <c r="F301">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G301" t="b">
-        <v>1</v>
-      </c>
-      <c r="H301">
-        <v>369</v>
-      </c>
       <c r="J301" s="1" t="s">
         <v>524</v>
       </c>
@@ -18774,7 +18726,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K314">
         <v>0.125</v>
@@ -19944,7 +19896,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K359">
         <v>0.1176470588235294</v>
@@ -20230,7 +20182,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K370">
         <v>0.1129032258064516</v>
@@ -20256,7 +20208,7 @@
     </row>
     <row r="371" spans="10:17">
       <c r="J371" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K371">
         <v>0.1122448979591837</v>
@@ -20282,7 +20234,7 @@
     </row>
     <row r="372" spans="10:17">
       <c r="J372" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K372">
         <v>0.1121495327102804</v>
@@ -21114,7 +21066,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K404">
         <v>0.1102941176470588</v>
@@ -21140,7 +21092,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K405">
         <v>0.1088798242861625</v>
@@ -21192,7 +21144,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K407">
         <v>0.1076923076923077</v>
@@ -21270,7 +21222,7 @@
     </row>
     <row r="410" spans="10:17">
       <c r="J410" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K410">
         <v>0.1071428571428571</v>
@@ -21322,7 +21274,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K412">
         <v>0.1060606060606061</v>
@@ -21608,7 +21560,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K423">
         <v>0.1020408163265306</v>
@@ -21634,7 +21586,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K424">
         <v>0.1016949152542373</v>
@@ -22414,7 +22366,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K454">
         <v>0.09677419354838709</v>
@@ -22544,7 +22496,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K459">
         <v>0.09523809523809523</v>
@@ -22700,7 +22652,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K465">
         <v>0.09433962264150944</v>
@@ -22726,7 +22678,7 @@
     </row>
     <row r="466" spans="10:17">
       <c r="J466" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K466">
         <v>0.09433962264150944</v>
@@ -22804,7 +22756,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K469">
         <v>0.09090909090909091</v>
@@ -22934,7 +22886,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K474">
         <v>0.09090909090909091</v>
@@ -23090,7 +23042,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K480">
         <v>0.09090909090909091</v>
@@ -23584,7 +23536,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K499">
         <v>0.08888888888888889</v>
@@ -24000,7 +23952,7 @@
     </row>
     <row r="515" spans="10:17">
       <c r="J515" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K515">
         <v>0.08333333333333333</v>
@@ -24312,7 +24264,7 @@
     </row>
     <row r="527" spans="10:17">
       <c r="J527" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K527">
         <v>0.0831889081455806</v>
@@ -24338,7 +24290,7 @@
     </row>
     <row r="528" spans="10:17">
       <c r="J528" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K528">
         <v>0.0821917808219178</v>
@@ -24364,7 +24316,7 @@
     </row>
     <row r="529" spans="10:17">
       <c r="J529" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K529">
         <v>0.08214285714285714</v>
@@ -24546,7 +24498,7 @@
     </row>
     <row r="536" spans="10:17">
       <c r="J536" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K536">
         <v>0.08108108108108109</v>
@@ -24650,7 +24602,7 @@
     </row>
     <row r="540" spans="10:17">
       <c r="J540" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K540">
         <v>0.08035714285714286</v>
@@ -24676,7 +24628,7 @@
     </row>
     <row r="541" spans="10:17">
       <c r="J541" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K541">
         <v>0.08</v>
@@ -24832,7 +24784,7 @@
     </row>
     <row r="547" spans="10:17">
       <c r="J547" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K547">
         <v>0.08</v>
@@ -24910,7 +24862,7 @@
     </row>
     <row r="550" spans="10:17">
       <c r="J550" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K550">
         <v>0.07894736842105263</v>
@@ -24936,7 +24888,7 @@
     </row>
     <row r="551" spans="10:17">
       <c r="J551" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K551">
         <v>0.07894736842105263</v>
@@ -24962,7 +24914,7 @@
     </row>
     <row r="552" spans="10:17">
       <c r="J552" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K552">
         <v>0.07874015748031496</v>
@@ -25456,7 +25408,7 @@
     </row>
     <row r="571" spans="10:17">
       <c r="J571" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K571">
         <v>0.07520891364902507</v>
@@ -25534,7 +25486,7 @@
     </row>
     <row r="574" spans="10:17">
       <c r="J574" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K574">
         <v>0.07407407407407407</v>
@@ -25586,7 +25538,7 @@
     </row>
     <row r="576" spans="10:17">
       <c r="J576" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K576">
         <v>0.07272727272727272</v>
@@ -25638,7 +25590,7 @@
     </row>
     <row r="578" spans="10:17">
       <c r="J578" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K578">
         <v>0.07246376811594203</v>
@@ -25690,7 +25642,7 @@
     </row>
     <row r="580" spans="10:17">
       <c r="J580" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K580">
         <v>0.07142857142857142</v>
@@ -25716,7 +25668,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K581">
         <v>0.07142857142857142</v>
@@ -25794,7 +25746,7 @@
     </row>
     <row r="584" spans="10:17">
       <c r="J584" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K584">
         <v>0.07142857142857142</v>
@@ -26184,7 +26136,7 @@
     </row>
     <row r="599" spans="10:17">
       <c r="J599" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K599">
         <v>0.07142857142857142</v>
@@ -26548,7 +26500,7 @@
     </row>
     <row r="613" spans="10:17">
       <c r="J613" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K613">
         <v>0.07079646017699115</v>
@@ -26574,7 +26526,7 @@
     </row>
     <row r="614" spans="10:17">
       <c r="J614" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K614">
         <v>0.07037037037037037</v>
@@ -26756,7 +26708,7 @@
     </row>
     <row r="621" spans="10:17">
       <c r="J621" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K621">
         <v>0.06818181818181818</v>
@@ -26834,7 +26786,7 @@
     </row>
     <row r="624" spans="10:17">
       <c r="J624" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K624">
         <v>0.06666666666666667</v>
@@ -27042,7 +26994,7 @@
     </row>
     <row r="632" spans="10:17">
       <c r="J632" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K632">
         <v>0.06666666666666667</v>
@@ -27380,7 +27332,7 @@
     </row>
     <row r="645" spans="10:17">
       <c r="J645" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K645">
         <v>0.06451612903225806</v>
@@ -27484,7 +27436,7 @@
     </row>
     <row r="649" spans="10:17">
       <c r="J649" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K649">
         <v>0.06382978723404255</v>
@@ -27926,7 +27878,7 @@
     </row>
     <row r="666" spans="10:17">
       <c r="J666" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K666">
         <v>0.06172839506172839</v>
@@ -27952,7 +27904,7 @@
     </row>
     <row r="667" spans="10:17">
       <c r="J667" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K667">
         <v>0.06172839506172839</v>
@@ -28238,7 +28190,7 @@
     </row>
     <row r="678" spans="10:17">
       <c r="J678" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K678">
         <v>0.05882352941176471</v>
@@ -28836,7 +28788,7 @@
     </row>
     <row r="701" spans="10:17">
       <c r="J701" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K701">
         <v>0.05454545454545454</v>
@@ -28888,7 +28840,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K703">
         <v>0.05319148936170213</v>
@@ -28992,7 +28944,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K707">
         <v>0.05263157894736842</v>
@@ -29200,7 +29152,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K715">
         <v>0.05172413793103448</v>
@@ -29252,7 +29204,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K717">
         <v>0.05128205128205128</v>
@@ -29330,7 +29282,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K720">
         <v>0.0505050505050505</v>
@@ -29902,7 +29854,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K742">
         <v>0.04672897196261682</v>
@@ -29980,7 +29932,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K745">
         <v>0.04545454545454546</v>
@@ -30344,7 +30296,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K759">
         <v>0.04347826086956522</v>
@@ -30448,7 +30400,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K763">
         <v>0.04347826086956522</v>
@@ -30682,7 +30634,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K772">
         <v>0.04166666666666666</v>
@@ -30864,7 +30816,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K779">
         <v>0.04088050314465409</v>
@@ -30916,7 +30868,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K781">
         <v>0.04081632653061224</v>
@@ -30968,7 +30920,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K783">
         <v>0.04</v>
@@ -31124,7 +31076,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K789">
         <v>0.03846153846153846</v>
@@ -31384,7 +31336,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K799">
         <v>0.03703703703703703</v>
@@ -31644,7 +31596,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K809">
         <v>0.03571428571428571</v>
@@ -31670,7 +31622,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K810">
         <v>0.03571428571428571</v>
@@ -32554,7 +32506,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K844">
         <v>0.02631578947368421</v>
@@ -32632,7 +32584,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K847">
         <v>0.025</v>
@@ -32944,7 +32896,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K859">
         <v>0.02061855670103093</v>
@@ -32996,7 +32948,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K861">
         <v>0.02</v>
@@ -33022,7 +32974,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K862">
         <v>0.01904761904761905</v>
@@ -33048,7 +33000,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K863">
         <v>0.01724137931034483</v>
@@ -33178,7 +33130,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K868">
         <v>0.016</v>
@@ -33204,7 +33156,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K869">
         <v>0.01587301587301587</v>
@@ -33490,7 +33442,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K880">
         <v>0.005319148936170213</v>
